--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H2">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J2">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>11.778525880576</v>
+        <v>45.69821288275411</v>
       </c>
       <c r="R2">
-        <v>106.006732925184</v>
+        <v>411.2839159447869</v>
       </c>
       <c r="S2">
-        <v>0.0003015917328257796</v>
+        <v>0.001125092751776022</v>
       </c>
       <c r="T2">
-        <v>0.0003015917328257796</v>
+        <v>0.001125092751776022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H3">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J3">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>180.3088695060987</v>
+        <v>282.9127067022459</v>
       </c>
       <c r="R3">
-        <v>1622.779825554888</v>
+        <v>2546.214360320213</v>
       </c>
       <c r="S3">
-        <v>0.004616848063124717</v>
+        <v>0.006965327867693396</v>
       </c>
       <c r="T3">
-        <v>0.004616848063124717</v>
+        <v>0.006965327867693396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H4">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J4">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>514.1121309234213</v>
+        <v>1046.334161041294</v>
       </c>
       <c r="R4">
-        <v>4627.009178310792</v>
+        <v>9417.007449371651</v>
       </c>
       <c r="S4">
-        <v>0.01316395362238371</v>
+        <v>0.02576081002431222</v>
       </c>
       <c r="T4">
-        <v>0.01316395362238371</v>
+        <v>0.02576081002431222</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H5">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J5">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>269.1331767230773</v>
+        <v>133.5002824404336</v>
       </c>
       <c r="R5">
-        <v>2422.198590507696</v>
+        <v>1201.502541963902</v>
       </c>
       <c r="S5">
-        <v>0.006891213888036244</v>
+        <v>0.003286784989144885</v>
       </c>
       <c r="T5">
-        <v>0.006891213888036244</v>
+        <v>0.003286784989144885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H6">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J6">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>820.7908489714267</v>
+        <v>1466.391717796194</v>
       </c>
       <c r="R6">
-        <v>7387.11764074284</v>
+        <v>13197.52546016574</v>
       </c>
       <c r="S6">
-        <v>0.02101652931264178</v>
+        <v>0.03610265235513204</v>
       </c>
       <c r="T6">
-        <v>0.02101652931264178</v>
+        <v>0.03610265235513204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.675848</v>
+        <v>15.18183966666667</v>
       </c>
       <c r="H7">
-        <v>29.027544</v>
+        <v>45.545519</v>
       </c>
       <c r="I7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="J7">
-        <v>0.05899100603075658</v>
+        <v>0.08506230624803562</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>507.7429523728987</v>
+        <v>480.1628496624506</v>
       </c>
       <c r="R7">
-        <v>4569.686571356088</v>
+        <v>4321.465646962055</v>
       </c>
       <c r="S7">
-        <v>0.01300086941174436</v>
+        <v>0.01182163825997707</v>
       </c>
       <c r="T7">
-        <v>0.01300086941174436</v>
+        <v>0.01182163825997707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J8">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>36.26544088992</v>
+        <v>89.67386207131</v>
       </c>
       <c r="R8">
-        <v>326.3889680092801</v>
+        <v>807.06475864179</v>
       </c>
       <c r="S8">
-        <v>0.0009285845504418074</v>
+        <v>0.002207775881718751</v>
       </c>
       <c r="T8">
-        <v>0.0009285845504418072</v>
+        <v>0.002207775881718752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J9">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>555.1612073786899</v>
@@ -1013,10 +1013,10 @@
         <v>4996.45086640821</v>
       </c>
       <c r="S9">
-        <v>0.01421502420834374</v>
+        <v>0.01366810234114665</v>
       </c>
       <c r="T9">
-        <v>0.01421502420834374</v>
+        <v>0.01366810234114665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J10">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>1582.92330329221</v>
+        <v>2053.2274528645</v>
       </c>
       <c r="R10">
-        <v>14246.30972962989</v>
+        <v>18479.04707578051</v>
       </c>
       <c r="S10">
-        <v>0.04053109759324643</v>
+        <v>0.05055058347450572</v>
       </c>
       <c r="T10">
-        <v>0.04053109759324643</v>
+        <v>0.05055058347450572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J11">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>828.64642069198</v>
+        <v>261.9683606612601</v>
       </c>
       <c r="R11">
-        <v>7457.81778622782</v>
+        <v>2357.71524595134</v>
       </c>
       <c r="S11">
-        <v>0.02121767294568723</v>
+        <v>0.006449676807511678</v>
       </c>
       <c r="T11">
-        <v>0.02121767294568723</v>
+        <v>0.006449676807511679</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J12">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>2527.17040469795</v>
+        <v>2877.508776580461</v>
       </c>
       <c r="R12">
-        <v>22744.53364228155</v>
+        <v>25897.57898922414</v>
       </c>
       <c r="S12">
-        <v>0.06470875126706511</v>
+        <v>0.07084443927837583</v>
       </c>
       <c r="T12">
-        <v>0.06470875126706511</v>
+        <v>0.07084443927837585</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>89.37423</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236128</v>
       </c>
       <c r="J13">
-        <v>0.1816301007389473</v>
+        <v>0.1669182455236129</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>1563.31294877219</v>
+        <v>942.2262805521501</v>
       </c>
       <c r="R13">
-        <v>14069.81653894971</v>
+        <v>8480.036524969351</v>
       </c>
       <c r="S13">
-        <v>0.04002897017416303</v>
+        <v>0.02319766774035423</v>
       </c>
       <c r="T13">
-        <v>0.04002897017416303</v>
+        <v>0.02319766774035423</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H14">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J14">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>40.286000875136</v>
+        <v>128.6152610503974</v>
       </c>
       <c r="R14">
-        <v>362.574007876224</v>
+        <v>1157.537349453576</v>
       </c>
       <c r="S14">
-        <v>0.001031531868736615</v>
+        <v>0.00316651546848985</v>
       </c>
       <c r="T14">
-        <v>0.001031531868736615</v>
+        <v>0.00316651546848985</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H15">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J15">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>616.7090303461852</v>
+        <v>796.2432080296028</v>
       </c>
       <c r="R15">
-        <v>5550.381273115667</v>
+        <v>7166.188872266424</v>
       </c>
       <c r="S15">
-        <v>0.01579096968476642</v>
+        <v>0.01960355570804114</v>
       </c>
       <c r="T15">
-        <v>0.01579096968476642</v>
+        <v>0.01960355570804114</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H16">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J16">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>1758.413740929534</v>
+        <v>2944.853480672134</v>
       </c>
       <c r="R16">
-        <v>15825.72366836581</v>
+        <v>26503.68132604921</v>
       </c>
       <c r="S16">
-        <v>0.04502456865388876</v>
+        <v>0.07250246994663063</v>
       </c>
       <c r="T16">
-        <v>0.04502456865388877</v>
+        <v>0.07250246994663063</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H17">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J17">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>920.5141206060505</v>
+        <v>375.7296531580108</v>
       </c>
       <c r="R17">
-        <v>8284.627085454455</v>
+        <v>3381.566878422097</v>
       </c>
       <c r="S17">
-        <v>0.02356996550663444</v>
+        <v>0.009250486676141544</v>
       </c>
       <c r="T17">
-        <v>0.02356996550663445</v>
+        <v>0.009250486676141544</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H18">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J18">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>2807.344585836193</v>
+        <v>4127.083789258492</v>
       </c>
       <c r="R18">
-        <v>25266.10127252574</v>
+        <v>37143.75410332642</v>
       </c>
       <c r="S18">
-        <v>0.07188267248940353</v>
+        <v>0.1016090513031723</v>
       </c>
       <c r="T18">
-        <v>0.07188267248940354</v>
+        <v>0.1016090513031723</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.09422799999999</v>
+        <v>42.72850400000001</v>
       </c>
       <c r="H19">
-        <v>99.28268399999999</v>
+        <v>128.185512</v>
       </c>
       <c r="I19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="J19">
-        <v>0.2017664811943339</v>
+        <v>0.239403469709177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>1736.629288845985</v>
+        <v>1351.393552620627</v>
       </c>
       <c r="R19">
-        <v>15629.66359961387</v>
+        <v>12162.54197358564</v>
       </c>
       <c r="S19">
-        <v>0.04446677299090412</v>
+        <v>0.03327139060670162</v>
       </c>
       <c r="T19">
-        <v>0.04446677299090412</v>
+        <v>0.03327139060670162</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H20">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J20">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N20">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O20">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P20">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q20">
-        <v>16.84322711837867</v>
+        <v>30.10249507675289</v>
       </c>
       <c r="R20">
-        <v>151.589044065408</v>
+        <v>270.922455690776</v>
       </c>
       <c r="S20">
-        <v>0.0004312745163965774</v>
+        <v>0.0007411252406767407</v>
       </c>
       <c r="T20">
-        <v>0.0004312745163965773</v>
+        <v>0.0007411252406767407</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H21">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J21">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P21">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q21">
-        <v>257.8406900270618</v>
+        <v>186.3613000032471</v>
       </c>
       <c r="R21">
-        <v>2320.566210243556</v>
+        <v>1677.251700029224</v>
       </c>
       <c r="S21">
-        <v>0.006602067294897642</v>
+        <v>0.004588226423277444</v>
       </c>
       <c r="T21">
-        <v>0.006602067294897642</v>
+        <v>0.004588226423277444</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H22">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J22">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N22">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P22">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q22">
-        <v>735.1775148481782</v>
+        <v>689.2450917543556</v>
       </c>
       <c r="R22">
-        <v>6616.597633633604</v>
+        <v>6203.2058257892</v>
       </c>
       <c r="S22">
-        <v>0.01882438115649575</v>
+        <v>0.01696925564506429</v>
       </c>
       <c r="T22">
-        <v>0.01882438115649575</v>
+        <v>0.01696925564506429</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H23">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J23">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N23">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P23">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q23">
-        <v>384.8589599920169</v>
+        <v>87.93979767258845</v>
       </c>
       <c r="R23">
-        <v>3463.730639928152</v>
+        <v>791.458179053296</v>
       </c>
       <c r="S23">
-        <v>0.009854397894470953</v>
+        <v>0.002165083111847859</v>
       </c>
       <c r="T23">
-        <v>0.009854397894470953</v>
+        <v>0.002165083111847859</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H24">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J24">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N24">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P24">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q24">
-        <v>1173.726392087065</v>
+        <v>965.9469524290686</v>
       </c>
       <c r="R24">
-        <v>10563.53752878358</v>
+        <v>8693.522571861617</v>
       </c>
       <c r="S24">
-        <v>0.0300535211317613</v>
+        <v>0.02378167210972531</v>
       </c>
       <c r="T24">
-        <v>0.0300535211317613</v>
+        <v>0.02378167210972531</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.83640933333333</v>
+        <v>10.00063733333333</v>
       </c>
       <c r="H25">
-        <v>41.509228</v>
+        <v>30.001912</v>
       </c>
       <c r="I25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="J25">
-        <v>0.0843568136277754</v>
+        <v>0.05603255561915136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N25">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O25">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P25">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q25">
-        <v>726.0696246103286</v>
+        <v>316.2946405604044</v>
       </c>
       <c r="R25">
-        <v>6534.626621492956</v>
+        <v>2846.65176504364</v>
       </c>
       <c r="S25">
-        <v>0.01859117163375319</v>
+        <v>0.007787193088559715</v>
       </c>
       <c r="T25">
-        <v>0.01859117163375318</v>
+        <v>0.007787193088559715</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H26">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J26">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N26">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O26">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P26">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q26">
-        <v>49.04438704529067</v>
+        <v>137.7162316100699</v>
       </c>
       <c r="R26">
-        <v>441.3994834076161</v>
+        <v>1239.446084490629</v>
       </c>
       <c r="S26">
-        <v>0.001255792263339162</v>
+        <v>0.003390581911461819</v>
       </c>
       <c r="T26">
-        <v>0.001255792263339162</v>
+        <v>0.003390581911461819</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H27">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J27">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P27">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q27">
-        <v>750.7847818494123</v>
+        <v>852.5863350849299</v>
       </c>
       <c r="R27">
-        <v>6757.063036644711</v>
+        <v>7673.27701576437</v>
       </c>
       <c r="S27">
-        <v>0.01922400864361102</v>
+        <v>0.02099072688746963</v>
       </c>
       <c r="T27">
-        <v>0.01922400864361102</v>
+        <v>0.02099072688746963</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H28">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J28">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N28">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P28">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q28">
-        <v>2140.702036005067</v>
+        <v>3153.234854789506</v>
       </c>
       <c r="R28">
-        <v>19266.31832404561</v>
+        <v>28379.11369310555</v>
       </c>
       <c r="S28">
-        <v>0.05481314411059988</v>
+        <v>0.07763283191999919</v>
       </c>
       <c r="T28">
-        <v>0.05481314411059988</v>
+        <v>0.07763283191999919</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H29">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J29">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N29">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P29">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q29">
-        <v>1120.638679217278</v>
+        <v>402.3167353118704</v>
       </c>
       <c r="R29">
-        <v>10085.7481129555</v>
+        <v>3620.850617806834</v>
       </c>
       <c r="S29">
-        <v>0.02869419862583042</v>
+        <v>0.00990506223906186</v>
       </c>
       <c r="T29">
-        <v>0.02869419862583042</v>
+        <v>0.00990506223906186</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H30">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J30">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N30">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P30">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q30">
-        <v>3417.675903448351</v>
+        <v>4419.12120189979</v>
       </c>
       <c r="R30">
-        <v>30759.08313103516</v>
+        <v>39772.09081709811</v>
       </c>
       <c r="S30">
-        <v>0.08751033944389432</v>
+        <v>0.1087990299803066</v>
       </c>
       <c r="T30">
-        <v>0.08751033944389432</v>
+        <v>0.1087990299803066</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>40.28908533333333</v>
+        <v>45.75202433333333</v>
       </c>
       <c r="H31">
-        <v>120.867256</v>
+        <v>137.256073</v>
       </c>
       <c r="I31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="J31">
-        <v>0.2456315638559363</v>
+        <v>0.2563439471603943</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N31">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O31">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P31">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q31">
-        <v>2114.181530709279</v>
+        <v>1447.019785747909</v>
       </c>
       <c r="R31">
-        <v>19027.63377638351</v>
+        <v>13023.17807173118</v>
       </c>
       <c r="S31">
-        <v>0.05413408076866147</v>
+        <v>0.03562571422209516</v>
       </c>
       <c r="T31">
-        <v>0.05413408076866146</v>
+        <v>0.03562571422209516</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H32">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J32">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N32">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O32">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P32">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q32">
-        <v>45.44888725269333</v>
+        <v>105.4261721073042</v>
       </c>
       <c r="R32">
-        <v>409.0399852742401</v>
+        <v>948.8355489657379</v>
       </c>
       <c r="S32">
-        <v>0.001163728704298009</v>
+        <v>0.002595598702945839</v>
       </c>
       <c r="T32">
-        <v>0.001163728704298009</v>
+        <v>0.00259559870294584</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H33">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J33">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>55.904827</v>
       </c>
       <c r="O33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P33">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q33">
-        <v>695.7438956225755</v>
+        <v>652.6820596826956</v>
       </c>
       <c r="R33">
-        <v>6261.69506060318</v>
+        <v>5874.138537144261</v>
       </c>
       <c r="S33">
-        <v>0.0178146747064336</v>
+        <v>0.01606907159470938</v>
       </c>
       <c r="T33">
-        <v>0.01781467470643361</v>
+        <v>0.01606907159470938</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H34">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J34">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N34">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P34">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q34">
-        <v>1983.764735119624</v>
+        <v>2413.901953380789</v>
       </c>
       <c r="R34">
-        <v>17853.88261607662</v>
+        <v>21725.1175804271</v>
       </c>
       <c r="S34">
-        <v>0.05079473017672254</v>
+        <v>0.05943041138642946</v>
       </c>
       <c r="T34">
-        <v>0.05079473017672254</v>
+        <v>0.05943041138642947</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H35">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J35">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N35">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P35">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q35">
-        <v>1038.483383138618</v>
+        <v>307.9863054830831</v>
       </c>
       <c r="R35">
-        <v>9346.35044824756</v>
+        <v>2771.876749347748</v>
       </c>
       <c r="S35">
-        <v>0.02659059429058516</v>
+        <v>0.007582641378872433</v>
       </c>
       <c r="T35">
-        <v>0.02659059429058516</v>
+        <v>0.007582641378872434</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H36">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J36">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N36">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P36">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q36">
-        <v>3167.122196034989</v>
+        <v>3382.978367529323</v>
       </c>
       <c r="R36">
-        <v>28504.0997643149</v>
+        <v>30446.80530776391</v>
       </c>
       <c r="S36">
-        <v>0.08109485693352909</v>
+        <v>0.08328913103205218</v>
       </c>
       <c r="T36">
-        <v>0.08109485693352911</v>
+        <v>0.08328913103205218</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.33544666666666</v>
+        <v>35.02463533333333</v>
       </c>
       <c r="H37">
-        <v>112.00634</v>
+        <v>105.073906</v>
       </c>
       <c r="I37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="J37">
-        <v>0.2276240345522505</v>
+        <v>0.1962394757396289</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N37">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O37">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P37">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q37">
-        <v>1959.188478228909</v>
+        <v>1107.739844398841</v>
       </c>
       <c r="R37">
-        <v>17632.69630406018</v>
+        <v>9969.658599589569</v>
       </c>
       <c r="S37">
-        <v>0.05016544974068211</v>
+        <v>0.02727262164461961</v>
       </c>
       <c r="T37">
-        <v>0.05016544974068211</v>
+        <v>0.02727262164461962</v>
       </c>
     </row>
   </sheetData>
